--- a/data/code speed.xlsx
+++ b/data/code speed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd3e99d6a3c3959/Documents/2018 UBC/ELEC 391/Controller/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{63960190-5230-4FBE-9E02-44C080A1444E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{D08A16B0-3D24-4EB6-9F81-C6AAF65FB419}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{63960190-5230-4FBE-9E02-44C080A1444E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{C5628AAC-9D83-46EE-A75A-D54CD648E37C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="17028" windowHeight="7416" xr2:uid="{07B879F5-6FCC-491F-8449-9F54D421AAD5}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="17028" windowHeight="7416" xr2:uid="{07B879F5-6FCC-491F-8449-9F54D421AAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
-  <si>
-    <t>Arduino Controller Function Performance Test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
   <si>
     <t>Test 1</t>
   </si>
@@ -106,13 +103,40 @@
   </si>
   <si>
     <t>Max frequency</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Single motor test</t>
+  </si>
+  <si>
+    <t>Desired Freq</t>
+  </si>
+  <si>
+    <t>Worse case time</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Dual motor PID control test</t>
+  </si>
+  <si>
+    <t>lcall3 Controller Software Performance Analysis</t>
+  </si>
+  <si>
+    <t>Fmax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +185,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -422,13 +477,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
@@ -437,12 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,11 +561,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="3" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,10 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8700326C-07A4-48C7-941A-929BE48EB14F}">
-  <dimension ref="B1:U35"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:U55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,893 +907,1455 @@
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="1" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:21" s="33" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+    </row>
+    <row r="4" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="34">
+        <f>2*($F$15+$M$15)+$T$32+$M$49</f>
+        <v>225.60000000000002</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="32">
+        <f>1/($M$4*0.000001)</f>
+        <v>4432.6241134751772</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:21" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="I7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="8" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="I4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F9" s="12">
+        <v>16000000</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="P9" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="28"/>
+      <c r="C10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14">
-        <v>16000000</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="F10" s="13">
+        <f>1/F9</f>
+        <v>6.2499999999999997E-8</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="P6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
-    </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="15">
-        <f>1/F6</f>
-        <v>6.2499999999999997E-8</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
+      <c r="I10" s="28"/>
+      <c r="J10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="I8" s="5">
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
-        <v>8</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="J11" s="5">
+        <v>8</v>
+      </c>
+      <c r="P11" s="5">
         <v>1</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="16">
-        <f>MIN(C8:C17)*0.000001/$F$7</f>
-        <v>64</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>8</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="16">
-        <f>MIN(J8:J17)*0.000001/$F$7</f>
-        <v>128</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="P9" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>4</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="16">
-        <f>MIN(Q8:Q17)*0.000001/$F$7</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="17">
-        <f>MAX(C8:C17)*0.000001/$F$7</f>
-        <v>128</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="I10" s="4">
-        <v>3</v>
-      </c>
-      <c r="J10" s="5">
-        <v>8</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="17">
-        <f>MAX(J8:J17)*0.000001/$F$7</f>
-        <v>192</v>
-      </c>
-      <c r="N10" s="22"/>
-      <c r="P10" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>4</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="17">
-        <f>MAX(Q8:Q17)*0.000001/$F$7</f>
-        <v>64</v>
-      </c>
-      <c r="U10" s="22"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="17">
-        <f>C18*0.000001/$F$7</f>
-        <v>89.6</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="I11" s="4">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5">
-        <v>8</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="17">
-        <f>J18*0.000001/$F$7</f>
-        <v>134.4</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="P11" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>4</v>
-      </c>
-      <c r="S11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" s="17">
-        <f>Q18*0.000001/$F$7</f>
-        <v>51.2</v>
-      </c>
-      <c r="U11" s="22"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="23">
-        <f>F11*$F$7*1000000</f>
-        <v>5.6</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="E12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14">
+        <f>MIN(C11:C20)*0.000001/$F$10</f>
+        <v>64</v>
+      </c>
+      <c r="G12" s="18"/>
       <c r="I12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="5">
         <v>8</v>
       </c>
-      <c r="L12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="23">
-        <f>M11*$F$7*1000000</f>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="L12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="14">
+        <f>MIN(J11:J20)*0.000001/$F$10</f>
+        <v>128</v>
+      </c>
+      <c r="N12" s="18"/>
       <c r="P12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="5">
         <v>4</v>
       </c>
-      <c r="S12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="23">
-        <f>T11*$F$7*1000000</f>
-        <v>3.1999999999999997</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="14">
+        <f>MIN(Q11:Q20)*0.000001/$F$10</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>26</v>
+      <c r="E13" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="F13" s="15">
-        <f>1/(F10*$F$7)</f>
-        <v>125000</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>23</v>
-      </c>
+        <f>MAX(C11:C20)*0.000001/$F$10</f>
+        <v>128</v>
+      </c>
+      <c r="G13" s="20"/>
       <c r="I13" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13" s="5">
         <v>8</v>
       </c>
-      <c r="L13" s="28" t="s">
-        <v>26</v>
+      <c r="L13" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="M13" s="15">
-        <f>1/(M10*$F$7)</f>
-        <v>83333.333333333328</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>23</v>
-      </c>
+        <f>MAX(J11:J20)*0.000001/$F$10</f>
+        <v>192</v>
+      </c>
+      <c r="N13" s="20"/>
       <c r="P13" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="5">
         <v>4</v>
       </c>
-      <c r="S13" s="28" t="s">
-        <v>26</v>
+      <c r="S13" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="T13" s="15">
-        <f>1/(T10*$F$7)</f>
-        <v>250000</v>
-      </c>
-      <c r="U13" s="21" t="s">
-        <v>23</v>
-      </c>
+        <f>MAX(Q11:Q20)*0.000001/$F$10</f>
+        <v>64</v>
+      </c>
+      <c r="U13" s="20"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
+      <c r="E14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15">
+        <f>C21*0.000001/$F$10</f>
+        <v>89.6</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="I14" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J14" s="5">
         <v>8</v>
       </c>
+      <c r="L14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="15">
+        <f>J21*0.000001/$F$10</f>
+        <v>134.4</v>
+      </c>
+      <c r="N14" s="20"/>
       <c r="P14" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="5">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="15">
+        <f>Q21*0.000001/$F$10</f>
+        <v>51.2</v>
+      </c>
+      <c r="U14" s="20"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4">
         <v>4</v>
       </c>
+      <c r="E15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="21">
+        <f>F14*$F$10*1000000</f>
+        <v>5.6</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="I15" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J15" s="5">
         <v>8</v>
       </c>
+      <c r="L15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="21">
+        <f>M14*$F$10*1000000</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="P15" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="S15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="21">
+        <f>T14*$F$10*1000000</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="13">
+        <f>1/(F13*$F$10)</f>
+        <v>125000</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5">
+        <v>8</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="13">
+        <f>1/(M13*$F$10)</f>
+        <v>83333.333333333328</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>4</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="13">
+        <f>1/(T13*$F$10)</f>
+        <v>250000</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5">
+        <v>8</v>
+      </c>
+      <c r="P17" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8</v>
+      </c>
+      <c r="P18" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>9</v>
       </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
         <v>9</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J19" s="5">
         <v>12</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P19" s="4">
         <v>9</v>
       </c>
-      <c r="Q16" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6">
+      <c r="Q19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="6">
-        <v>8</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="C20" s="6">
+        <v>8</v>
+      </c>
+      <c r="I20" s="6">
         <v>10</v>
       </c>
-      <c r="J17" s="5">
-        <v>8</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="J20" s="5">
+        <v>8</v>
+      </c>
+      <c r="P20" s="6">
         <v>10</v>
       </c>
-      <c r="Q17" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7">
-        <f>AVERAGE(C8:C17)</f>
+      <c r="Q20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <f>AVERAGE(C11:C20)</f>
         <v>5.6</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="7">
-        <f>AVERAGE(J8:J17)</f>
+      <c r="I21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="7">
+        <f>AVERAGE(J11:J20)</f>
         <v>8.4</v>
       </c>
-      <c r="P18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="7">
-        <f>AVERAGE(Q8:Q17)</f>
+      <c r="P21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="7">
+        <f>AVERAGE(Q11:Q20)</f>
         <v>3.2</v>
       </c>
     </row>
-    <row r="20" spans="2:21" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="2" t="s">
+    <row r="23" spans="2:21" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="I23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="P23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="19"/>
-    </row>
-    <row r="24" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="11" t="s">
+    <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="11" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="I26" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="11" t="s">
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="P26" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="19"/>
-    </row>
-    <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="28"/>
+      <c r="C27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="5">
         <v>1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>760</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>8</v>
-      </c>
-      <c r="P25" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5">
-        <v>760</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="16">
-        <f>MIN(C25:C34)*0.000001/$F$7</f>
-        <v>12160</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="I26" s="4">
-        <v>2</v>
-      </c>
-      <c r="J26" s="5">
-        <v>8</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="16">
-        <f>MIN(J25:J34)*0.000001/$F$7</f>
-        <v>64</v>
-      </c>
-      <c r="N26" s="20"/>
-      <c r="P26" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>8</v>
-      </c>
-      <c r="S26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="T26" s="16">
-        <f>MIN(Q25:Q34)*0.000001/$F$7</f>
-        <v>128</v>
-      </c>
-      <c r="U26" s="20"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5">
-        <v>764</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="17">
-        <f>MAX(C25:C34)*0.000001/$F$7</f>
-        <v>12224</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="I27" s="4">
-        <v>3</v>
-      </c>
-      <c r="J27" s="5">
-        <v>4</v>
-      </c>
-      <c r="L27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="17">
-        <f>MAX(J25:J34)*0.000001/$F$7</f>
-        <v>128</v>
-      </c>
-      <c r="N27" s="22"/>
-      <c r="P27" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>8</v>
-      </c>
-      <c r="S27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="T27" s="17">
-        <f>MAX(Q25:Q34)*0.000001/$F$7</f>
-        <v>192</v>
-      </c>
-      <c r="U27" s="22"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
-        <v>4</v>
       </c>
       <c r="C28" s="5">
         <v>760</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="17">
-        <f>C35*0.000001/$F$7</f>
-        <v>12185.6</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="I28" s="4">
-        <v>4</v>
+      <c r="I28" s="5">
+        <v>1</v>
       </c>
       <c r="J28" s="5">
         <v>8</v>
       </c>
-      <c r="L28" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="17">
-        <f>J35*0.000001/$F$7</f>
-        <v>108.8</v>
-      </c>
-      <c r="N28" s="22"/>
-      <c r="P28" s="4">
-        <v>4</v>
+      <c r="P28" s="5">
+        <v>1</v>
       </c>
       <c r="Q28" s="5">
-        <v>12</v>
-      </c>
-      <c r="S28" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T28" s="17">
-        <f>Q35*0.000001/$F$7</f>
-        <v>140.80000000000001</v>
-      </c>
-      <c r="U28" s="22"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5">
         <v>760</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="23">
-        <f>F28*$F$7*1000000</f>
-        <v>761.6</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="E29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="14">
+        <f>MIN(C28:C37)*0.000001/$F$10</f>
+        <v>12160</v>
+      </c>
+      <c r="G29" s="18"/>
       <c r="I29" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" s="5">
         <v>8</v>
       </c>
-      <c r="L29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="23">
-        <f>M28*$F$7*1000000</f>
-        <v>6.7999999999999989</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="L29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="14">
+        <f>MIN(J28:J37)*0.000001/$F$10</f>
+        <v>64</v>
+      </c>
+      <c r="N29" s="18"/>
       <c r="P29" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="5">
         <v>8</v>
       </c>
-      <c r="S29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="T29" s="23">
-        <f>T28*$F$7*1000000</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="U29" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="14">
+        <f>MIN(Q28:Q37)*0.000001/$F$10</f>
+        <v>128</v>
+      </c>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5">
         <v>764</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>26</v>
+      <c r="E30" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="F30" s="15">
-        <f>1/(F27*$F$7)</f>
-        <v>1308.9005235602096</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>23</v>
-      </c>
+        <f>MAX(C28:C37)*0.000001/$F$10</f>
+        <v>12224</v>
+      </c>
+      <c r="G30" s="20"/>
       <c r="I30" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J30" s="5">
         <v>4</v>
       </c>
-      <c r="L30" s="28" t="s">
-        <v>26</v>
+      <c r="L30" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="M30" s="15">
-        <f>1/(M27*$F$7)</f>
-        <v>125000</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>23</v>
-      </c>
+        <f>MAX(J28:J37)*0.000001/$F$10</f>
+        <v>128</v>
+      </c>
+      <c r="N30" s="20"/>
       <c r="P30" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="5">
-        <v>12</v>
-      </c>
-      <c r="S30" s="28" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="S30" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="T30" s="15">
-        <f>1/(T27*$F$7)</f>
-        <v>83333.333333333328</v>
-      </c>
-      <c r="U30" s="21" t="s">
-        <v>23</v>
-      </c>
+        <f>MAX(Q28:Q37)*0.000001/$F$10</f>
+        <v>192</v>
+      </c>
+      <c r="U30" s="20"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5">
-        <v>764</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="15">
+        <f>C38*0.000001/$F$10</f>
+        <v>12185.6</v>
+      </c>
+      <c r="G31" s="20"/>
       <c r="I31" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J31" s="5">
         <v>8</v>
       </c>
+      <c r="L31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="15">
+        <f>J38*0.000001/$F$10</f>
+        <v>108.8</v>
+      </c>
+      <c r="N31" s="20"/>
       <c r="P31" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="5">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="T31" s="15">
+        <f>Q38*0.000001/$F$10</f>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="U31" s="20"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5">
         <v>760</v>
       </c>
+      <c r="E32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="21">
+        <f>F31*$F$10*1000000</f>
+        <v>761.6</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="I32" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J32" s="5">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="21">
+        <f>M31*$F$10*1000000</f>
+        <v>6.7999999999999989</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="P32" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="21">
+        <f>T31*$F$10*1000000</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U32" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5">
         <v>764</v>
       </c>
+      <c r="E33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="13">
+        <f>1/(F30*$F$10)</f>
+        <v>1308.9005235602096</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="I33" s="4">
+        <v>6</v>
+      </c>
+      <c r="J33" s="5">
+        <v>4</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="13">
+        <f>1/(M30*$F$10)</f>
+        <v>125000</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>12</v>
+      </c>
+      <c r="S33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="13">
+        <f>1/(T30*$F$10)</f>
+        <v>83333.333333333328</v>
+      </c>
+      <c r="U33" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>764</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7</v>
+      </c>
+      <c r="J34" s="5">
+        <v>8</v>
+      </c>
+      <c r="P34" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>760</v>
+      </c>
+      <c r="I35" s="4">
+        <v>8</v>
+      </c>
+      <c r="J35" s="5">
+        <v>4</v>
+      </c>
+      <c r="P35" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
         <v>9</v>
       </c>
-      <c r="J33" s="5">
-        <v>8</v>
-      </c>
-      <c r="P33" s="4">
+      <c r="C36" s="5">
+        <v>764</v>
+      </c>
+      <c r="I36" s="4">
         <v>9</v>
       </c>
-      <c r="Q33" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
+      <c r="J36" s="5">
+        <v>8</v>
+      </c>
+      <c r="P36" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6">
         <v>10</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C37" s="5">
         <v>760</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I37" s="6">
         <v>10</v>
       </c>
-      <c r="J34" s="5">
-        <v>8</v>
-      </c>
-      <c r="P34" s="6">
+      <c r="J37" s="5">
+        <v>8</v>
+      </c>
+      <c r="P37" s="6">
         <v>10</v>
       </c>
-      <c r="Q34" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="7">
-        <f>AVERAGE(C25:C34)</f>
+      <c r="Q37" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <f>AVERAGE(C28:C37)</f>
         <v>761.6</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="7">
-        <f>AVERAGE(J25:J34)</f>
+      <c r="I38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="7">
+        <f>AVERAGE(J28:J37)</f>
         <v>6.8</v>
       </c>
-      <c r="P35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="7">
-        <f>AVERAGE(Q25:Q34)</f>
+      <c r="P38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="7">
+        <f>AVERAGE(Q28:Q37)</f>
         <v>8.8000000000000007</v>
       </c>
     </row>
+    <row r="40" spans="2:21" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B43" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="I43" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="28"/>
+      <c r="C44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
+        <v>20</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5">
+        <v>20</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="14">
+        <f>MIN(C45:C54)*0.000001/$F$10</f>
+        <v>256</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="5">
+        <v>184</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="14">
+        <f>MIN(J45:J54)*0.000001/$F$10</f>
+        <v>2944</v>
+      </c>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5">
+        <v>16</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="15">
+        <f>MAX(C45:C54)*0.000001/$F$10</f>
+        <v>448</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="I47" s="4">
+        <v>3</v>
+      </c>
+      <c r="J47" s="5">
+        <v>184</v>
+      </c>
+      <c r="L47" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="15">
+        <f>MAX(J45:J54)*0.000001/$F$10</f>
+        <v>3136</v>
+      </c>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5">
+        <v>28</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="15">
+        <f>C55*0.000001/$F$10</f>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="I48" s="4">
+        <v>4</v>
+      </c>
+      <c r="J48" s="5">
+        <v>196</v>
+      </c>
+      <c r="L48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="15">
+        <f>J55*0.000001/$F$10</f>
+        <v>3020.8</v>
+      </c>
+      <c r="N48" s="20"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5">
+        <v>24</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="21">
+        <f>F48*$F$10*1000000</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="4">
+        <v>5</v>
+      </c>
+      <c r="J49" s="5">
+        <v>196</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="21">
+        <f>M48*$F$10*1000000</f>
+        <v>188.8</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="4">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5">
+        <v>16</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="13">
+        <f>1/(F47*$F$10)</f>
+        <v>35714.285714285717</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="4">
+        <v>6</v>
+      </c>
+      <c r="J50" s="5">
+        <v>184</v>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="13">
+        <f>1/(M47*$F$10)</f>
+        <v>5102.0408163265311</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5">
+        <v>28</v>
+      </c>
+      <c r="I51" s="4">
+        <v>7</v>
+      </c>
+      <c r="J51" s="5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5">
+        <v>16</v>
+      </c>
+      <c r="I52" s="4">
+        <v>8</v>
+      </c>
+      <c r="J52" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>9</v>
+      </c>
+      <c r="C53" s="5">
+        <v>20</v>
+      </c>
+      <c r="I53" s="4">
+        <v>9</v>
+      </c>
+      <c r="J53" s="5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="6">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5">
+        <v>16</v>
+      </c>
+      <c r="I54" s="6">
+        <v>10</v>
+      </c>
+      <c r="J54" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7">
+        <f>AVERAGE(C45:C54)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="7">
+        <f>AVERAGE(J45:J54)</f>
+        <v>188.8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="P23:P24"/>
+  <mergeCells count="8">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="P26:P27"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="$F$4"/>
+        <cfvo type="num" val="$F$4*1.2" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C20">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0FD84169-AF7F-4E97-BBD2-A855C2D92A47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J20">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45716AA7-2D17-4442-82DF-B2AAC69227D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:Q20">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{47EA999B-EB31-46A1-91B4-90C23B36740A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C37">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{81DA147E-5767-489F-86D9-98FE1EFAF8EC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3A33A184-8470-4CE6-A138-F25FFBA8B9D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:Q37">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4B391A0F-9322-4389-B8A2-F3EC110714D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:C54">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{47E070D5-52C0-4B27-9BD6-2283F3254DBA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:J54">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9394A16F-B1CF-44CE-8A30-0A14BAC74B85}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0FD84169-AF7F-4E97-BBD2-A855C2D92A47}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C11:C20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{45716AA7-2D17-4442-82DF-B2AAC69227D0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J11:J20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{47EA999B-EB31-46A1-91B4-90C23B36740A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q11:Q20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{81DA147E-5767-489F-86D9-98FE1EFAF8EC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C28:C37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3A33A184-8470-4CE6-A138-F25FFBA8B9D0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J28:J37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4B391A0F-9322-4389-B8A2-F3EC110714D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q28:Q37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{47E070D5-52C0-4B27-9BD6-2283F3254DBA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C45:C54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9394A16F-B1CF-44CE-8A30-0A14BAC74B85}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J45:J54</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/code speed.xlsx
+++ b/data/code speed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd3e99d6a3c3959/Documents/2018 UBC/ELEC 391/Controller/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{63960190-5230-4FBE-9E02-44C080A1444E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{C5628AAC-9D83-46EE-A75A-D54CD648E37C}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{63960190-5230-4FBE-9E02-44C080A1444E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{A5028C3F-B15D-4DF1-AA09-400B0875DE94}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="17028" windowHeight="7416" xr2:uid="{07B879F5-6FCC-491F-8449-9F54D421AAD5}"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="17028" windowHeight="7416" xr2:uid="{07B879F5-6FCC-491F-8449-9F54D421AAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,12 +561,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -574,6 +568,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -899,7 +899,7 @@
   <dimension ref="B1:U55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,60 +910,60 @@
     <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="33" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:21" s="31" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>1000</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="34">
-        <f>2*($F$15+$M$15)+$T$32+$M$49</f>
-        <v>225.60000000000002</v>
-      </c>
-      <c r="N4" s="31" t="s">
+      <c r="M4" s="32">
+        <f>4*($F$15)+$T$32+$M$49</f>
+        <v>220</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="32">
+      <c r="T4" s="30">
         <f>1/($M$4*0.000001)</f>
-        <v>4432.6241134751772</v>
-      </c>
-      <c r="U4" s="31" t="s">
+        <v>4545.454545454546</v>
+      </c>
+      <c r="U4" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -992,7 +992,7 @@
     </row>
     <row r="8" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1007,7 +1007,7 @@
       <c r="G9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="34" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -1016,7 +1016,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="34" t="s">
         <v>2</v>
       </c>
       <c r="Q9" s="8" t="s">
@@ -1026,7 +1026,7 @@
       <c r="T9" s="17"/>
     </row>
     <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="28"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1040,14 +1040,14 @@
       <c r="G10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="P10" s="28"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="34" t="s">
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
@@ -1451,7 +1451,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="34" t="s">
         <v>2</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -1461,20 +1461,20 @@
       <c r="T26" s="17"/>
     </row>
     <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
-      <c r="I27" s="28"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="P27" s="28"/>
+      <c r="P27" s="35"/>
       <c r="Q27" s="9" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="42" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="34" t="s">
         <v>2</v>
       </c>
       <c r="J43" s="8" t="s">
@@ -1872,13 +1872,13 @@
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="28"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
-      <c r="I44" s="28"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="9" t="s">
         <v>4</v>
       </c>
